--- a/data/综合指数/医疗指标描述.xlsx
+++ b/data/综合指数/医疗指标描述.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>year</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>医疗行业企业数量</t>
+  </si>
+  <si>
+    <t>新增医院数</t>
   </si>
   <si>
     <t>count</t>
@@ -431,13 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,10 +477,13 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -515,10 +521,13 @@
       <c r="M2">
         <v>10</v>
       </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>2017.5</v>
@@ -556,10 +565,13 @@
       <c r="M3">
         <v>27474.2</v>
       </c>
+      <c r="N3">
+        <v>1062.6</v>
+      </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>3.027650354097492</v>
@@ -597,10 +609,13 @@
       <c r="M4">
         <v>1587.026415799197</v>
       </c>
+      <c r="N4">
+        <v>949.7183442122897</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>2013</v>
@@ -638,10 +653,13 @@
       <c r="M5">
         <v>25203</v>
       </c>
+      <c r="N5">
+        <v>-1132</v>
+      </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>2015.25</v>
@@ -679,10 +697,13 @@
       <c r="M6">
         <v>26236.25</v>
       </c>
+      <c r="N6">
+        <v>783.25</v>
+      </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>2017.5</v>
@@ -720,10 +741,13 @@
       <c r="M7">
         <v>27469.5</v>
       </c>
+      <c r="N7">
+        <v>1245.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>2019.75</v>
@@ -761,10 +785,13 @@
       <c r="M8">
         <v>28692</v>
       </c>
+      <c r="N8">
+        <v>1691</v>
+      </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>2022</v>
@@ -801,6 +828,9 @@
       </c>
       <c r="M9">
         <v>29808</v>
+      </c>
+      <c r="N9">
+        <v>2166</v>
       </c>
     </row>
   </sheetData>

--- a/data/综合指数/医疗指标描述.xlsx
+++ b/data/综合指数/医疗指标描述.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="27795" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>year</t>
   </si>
@@ -22,15 +22,6 @@
     <t>卫生机构床位数(万张)</t>
   </si>
   <si>
-    <t>卫生总费用(亿元)</t>
-  </si>
-  <si>
-    <t>政府卫生支出(亿元)</t>
-  </si>
-  <si>
-    <t>人均卫生费用(元)</t>
-  </si>
-  <si>
     <t>卫生人员数(万人)</t>
   </si>
   <si>
@@ -46,10 +37,10 @@
     <t>医疗卫生机构住院病人手术人次(万人次)</t>
   </si>
   <si>
-    <t>医疗行业市场规模</t>
-  </si>
-  <si>
-    <t>医疗行业企业数量</t>
+    <t>医药制造业市场规模</t>
+  </si>
+  <si>
+    <t>医药制造业企业数量</t>
   </si>
   <si>
     <t>新增医院数</t>
@@ -83,32 +74,375 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -131,9 +465,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -141,11 +717,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -428,19 +1056,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D$1:K$1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="7" width="12.1333333333333"/>
+    <col min="8" max="8" width="11.0666666666667"/>
+    <col min="9" max="11" width="12.1333333333333"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="2:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,19 +1106,10 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -515,19 +1141,10 @@
       <c r="K2">
         <v>10</v>
       </c>
-      <c r="L2">
-        <v>10</v>
-      </c>
-      <c r="M2">
-        <v>10</v>
-      </c>
-      <c r="N2">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>2017.5</v>
@@ -536,174 +1153,138 @@
         <v>806.609</v>
       </c>
       <c r="D3">
-        <v>56620.99299999999</v>
+        <v>1207.403</v>
       </c>
       <c r="E3">
-        <v>16279.143</v>
+        <v>80.387</v>
       </c>
       <c r="F3">
-        <v>4040.167</v>
+        <v>23235.516</v>
       </c>
       <c r="G3">
-        <v>1207.403</v>
+        <v>23135.479</v>
       </c>
       <c r="H3">
-        <v>80.387</v>
+        <v>5973.99</v>
       </c>
       <c r="I3">
-        <v>23235.516</v>
+        <v>359336.61</v>
       </c>
       <c r="J3">
-        <v>23135.479</v>
+        <v>10818.1</v>
       </c>
       <c r="K3">
-        <v>5973.99</v>
-      </c>
-      <c r="L3">
-        <v>428603.35</v>
-      </c>
-      <c r="M3">
-        <v>27474.2</v>
-      </c>
-      <c r="N3">
         <v>1062.6</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>3.027650354097492</v>
+        <v>3.02765035409749</v>
       </c>
       <c r="C4">
-        <v>123.5150997022001</v>
+        <v>123.5150997022</v>
       </c>
       <c r="D4">
-        <v>18286.3644740033</v>
+        <v>160.829253423209</v>
       </c>
       <c r="E4">
-        <v>4873.262908987389</v>
+        <v>4.49558066945256</v>
       </c>
       <c r="F4">
-        <v>1266.832293873625</v>
+        <v>2381.35576369709</v>
       </c>
       <c r="G4">
-        <v>160.8292534232086</v>
+        <v>2374.34450640569</v>
       </c>
       <c r="H4">
-        <v>4.495580669452564</v>
+        <v>1516.16607955725</v>
       </c>
       <c r="I4">
-        <v>2381.355763697086</v>
+        <v>71336.5254179162</v>
       </c>
       <c r="J4">
-        <v>2374.344506405692</v>
+        <v>693.70381928377</v>
       </c>
       <c r="K4">
-        <v>1516.16607955725</v>
-      </c>
-      <c r="L4">
-        <v>91754.45562809048</v>
-      </c>
-      <c r="M4">
-        <v>1587.026415799197</v>
-      </c>
-      <c r="N4">
-        <v>949.7183442122897</v>
+        <v>949.71834421229</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>2013</v>
       </c>
       <c r="C5">
-        <v>618.1900000000001</v>
+        <v>618.19</v>
       </c>
       <c r="D5">
-        <v>31668.95</v>
+        <v>979.05</v>
       </c>
       <c r="E5">
-        <v>9545.809999999999</v>
+        <v>73.14</v>
       </c>
       <c r="F5">
-        <v>2316.23</v>
+        <v>19215.46</v>
       </c>
       <c r="G5">
-        <v>979.05</v>
+        <v>19119.93</v>
       </c>
       <c r="H5">
-        <v>73.14</v>
+        <v>3982.76</v>
       </c>
       <c r="I5">
-        <v>19215.46</v>
+        <v>233812.3</v>
       </c>
       <c r="J5">
-        <v>19119.93</v>
+        <v>9774</v>
       </c>
       <c r="K5">
-        <v>3982.76</v>
-      </c>
-      <c r="L5">
-        <v>271504.2</v>
-      </c>
-      <c r="M5">
-        <v>25203</v>
-      </c>
-      <c r="N5">
         <v>-1132</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>2015.25</v>
       </c>
       <c r="C6">
-        <v>711.4024999999999</v>
+        <v>711.4025</v>
       </c>
       <c r="D6">
-        <v>42317.2</v>
+        <v>1081.365</v>
       </c>
       <c r="E6">
-        <v>12834.0375</v>
+        <v>77.095</v>
       </c>
       <c r="F6">
-        <v>3053.7875</v>
+        <v>21472.245</v>
       </c>
       <c r="G6">
-        <v>1081.365</v>
+        <v>21367.16</v>
       </c>
       <c r="H6">
-        <v>77.095</v>
+        <v>4687.325</v>
       </c>
       <c r="I6">
-        <v>21472.245</v>
+        <v>313527.15</v>
       </c>
       <c r="J6">
-        <v>21367.16</v>
+        <v>10320.75</v>
       </c>
       <c r="K6">
-        <v>4687.325</v>
-      </c>
-      <c r="L6">
-        <v>367607.85</v>
-      </c>
-      <c r="M6">
-        <v>26236.25</v>
-      </c>
-      <c r="N6">
         <v>783.25</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>2017.5</v>
@@ -712,86 +1293,68 @@
         <v>817.22</v>
       </c>
       <c r="D7">
-        <v>55860.095</v>
+        <v>1202.465</v>
       </c>
       <c r="E7">
-        <v>15802.5</v>
+        <v>80.575</v>
       </c>
       <c r="F7">
-        <v>3981.73</v>
+        <v>23724.34</v>
       </c>
       <c r="G7">
-        <v>1202.465</v>
+        <v>23648.155</v>
       </c>
       <c r="H7">
-        <v>80.57499999999999</v>
+        <v>5883.645</v>
       </c>
       <c r="I7">
-        <v>23724.34</v>
+        <v>364410.85</v>
       </c>
       <c r="J7">
-        <v>23648.155</v>
+        <v>10812</v>
       </c>
       <c r="K7">
-        <v>5883.645</v>
-      </c>
-      <c r="L7">
-        <v>434701.3</v>
-      </c>
-      <c r="M7">
-        <v>27469.5</v>
-      </c>
-      <c r="N7">
         <v>1245.5</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>2019.75</v>
       </c>
       <c r="C8">
-        <v>902.7275000000001</v>
+        <v>902.7275</v>
       </c>
       <c r="D8">
-        <v>70591.5975</v>
+        <v>1333.8325</v>
       </c>
       <c r="E8">
-        <v>20011.2825</v>
+        <v>83.89</v>
       </c>
       <c r="F8">
-        <v>5001.59</v>
+        <v>24720.4025</v>
       </c>
       <c r="G8">
-        <v>1333.8325</v>
+        <v>24602.765</v>
       </c>
       <c r="H8">
-        <v>83.89</v>
+        <v>6863.765</v>
       </c>
       <c r="I8">
-        <v>24720.4025</v>
+        <v>416931.5</v>
       </c>
       <c r="J8">
-        <v>24602.765</v>
+        <v>11324.5</v>
       </c>
       <c r="K8">
-        <v>6863.764999999999</v>
-      </c>
-      <c r="L8">
-        <v>499703.8</v>
-      </c>
-      <c r="M8">
-        <v>28692</v>
-      </c>
-      <c r="N8">
         <v>1691</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>2022</v>
@@ -800,40 +1363,32 @@
         <v>974.99</v>
       </c>
       <c r="D9">
-        <v>85327.49000000001</v>
+        <v>1441.08</v>
       </c>
       <c r="E9">
-        <v>24040.89</v>
+        <v>87.2</v>
       </c>
       <c r="F9">
-        <v>6044.09</v>
+        <v>26596.12</v>
       </c>
       <c r="G9">
-        <v>1441.08</v>
+        <v>26502.66</v>
       </c>
       <c r="H9">
-        <v>87.2</v>
+        <v>8271.75</v>
       </c>
       <c r="I9">
-        <v>26596.12</v>
+        <v>445912.5</v>
       </c>
       <c r="J9">
-        <v>26502.66</v>
+        <v>11863</v>
       </c>
       <c r="K9">
-        <v>8271.75</v>
-      </c>
-      <c r="L9">
-        <v>546023.3</v>
-      </c>
-      <c r="M9">
-        <v>29808</v>
-      </c>
-      <c r="N9">
         <v>2166</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>